--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kinogo.org</t>
+          <t>igrovuha.org</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://kinogo.org/</t>
+          <t>https://igrovuha.org/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,80 +470,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kinogo.inc</t>
+          <t>byxatab.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://kinogo.inc/</t>
+          <t>https://byxatab.com/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Форма: / (метод: post) Форма:  (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>www.ntv.ru</t>
+          <t>stalkermod.ru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.ntv.ru/air/ntv/</t>
+          <t>https://stalkermod.ru/modyi-call-of-chernobyl/stalker-anomaly-1-5-3.html</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>www@ntv.ru</t>
+          <t>Форма: https://stalkermod.ru/log-yourself-in.html (метод: post) Форма: /forum.html (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rezka.ag</t>
+          <t>freetp.org</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://rezka.ag/films/best/</t>
+          <t>https://freetp.org/po-seti/6272-liars-bar-igra-po-seti-i-internetu-onlayn.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>support@hdrezka.org</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>yandex.ru</t>
+          <t>cyber.sports.ru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://yandex.ru/games/tag/onlain_196</t>
+          <t>https://cyber.sports.ru/games/blogs/3172695.html</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Форма: # (метод: )</t>
+          <t>support@sports.ru Форма:  (метод: post) Форма: /ajax/user/unsubscribe.html (метод: post) Форма: /ajax/user/subscribe.html (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kinogo-films.biz</t>
+          <t>catorrent.org</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://kinogo-films.biz/6413-shef.html</t>
+          <t>https://catorrent.org/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,63 +555,63 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hdrezka.ag</t>
+          <t>gmt-max.info</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://hdrezka.ag/series/best/</t>
+          <t>https://gmt-max.info/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>support@hdrezka.org</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kinogo.online</t>
+          <t>gamestracker.org</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://kinogo.online/</t>
+          <t>https://gamestracker.org/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>Форма: /search/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ria.ru</t>
+          <t>stalker-world.ru</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://ria.ru/20200326/1569203991.html</t>
+          <t>https://stalker-world.ru/load/igry/7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Форма: /common/feedback/privacy.json (метод: post) Форма: /services/author/message/ (метод: post) Форма:  (метод: post) internet-group@ria.ru Форма: /services/chat/add/ (метод: get) Форма: /services/realty/form/qa/ (метод: post) Форма: /common/feedback/unblock_account.json (метод: post) 154.796internet-group@rian.ru7 Форма: /services/id/social/check_account/ (метод: post) Форма: /common/feedback/deleted_message.json (метод: post) Форма: /services/id/register/ (метод: post) Форма: /common/feedback/misprint.json (метод: post) Форма: https://ria.ru/services/id/login/ (метод: post) Форма: /services/id/password_recovery/set_new_password/ (метод: post) Форма: /common/feedback/other.json (метод: post) Форма: /search/ (метод: ) Форма: /services/id/password_recovery/send_email/ (метод: post)</t>
+          <t>Форма: /index/sub/ (метод: post) Форма: /search/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>w.kinogo.ec</t>
+          <t>torrent9.games</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://w.kinogo.ec/7941-mentalist-1.html</t>
+          <t>https://torrent9.games/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,80 +623,80 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>www.ntk.kz</t>
+          <t>kuplinov-play.games</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.ntk.kz/ru/programs-and-serials/serials/patrul</t>
+          <t>https://kuplinov-play.games/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Форма: /Account/Login?returnUrl=%2Fru%2Fprograms-and-serials%2Fserials%2Fpatrul%23commentForm (метод: post) office@ntk.kz Форма: /ru/search (метод: get)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>www.culture.ru</t>
+          <t>eneva.ru</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.culture.ru/live/theaters/performances</t>
+          <t>https://eneva.ru/blog/chto-takoe-torrenty-i-kak-oni-rabotajut/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cultrf@mkrf.ru</t>
+          <t>pressa@eneva.ru control@eneva.ru tp@eneva.ru Форма: /blog/chto-takoe-torrenty-i-kak-oni-rabotajut/#wpcf7-f864-o2 (метод: post) ao@eneva.ru Форма: /blog/chto-takoe-torrenty-i-kak-oni-rabotajut/#wpcf7-f480-o4 (метод: post) Форма: /blog/chto-takoe-torrenty-i-kak-oni-rabotajut/#wpcf7-f849-o3 (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kuf.aero</t>
+          <t>github.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://kuf.aero/board/</t>
+          <t>https://github.com/hydralauncher/hydra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Форма: /board/ (метод: )</t>
+          <t>Форма: /search/feedback (метод: post) Форма: /search/custom_scopes (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>megogo.net</t>
+          <t>pro32.com</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://megogo.net/ru/films</t>
+          <t>https://pro32.com/ru/article/kak-skachat-torrent-bez-virusov/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Форма: /ru/search-extended (метод: get) support@megogo.net</t>
+          <t>Форма: ?error-subscription=true (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kinogo.ec</t>
+          <t>byxatab.org</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://kinogo.ec/</t>
+          <t>https://byxatab.org/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,233 +708,233 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>www.ontvtime.ru</t>
+          <t>xbox-360.org</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.ontvtime.ru/general/tvc.html</t>
+          <t>http://xbox-360.org/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Форма: index.php?option=com_search (метод: get)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tv7.kz</t>
+          <t>ichip.ru</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://tv7.kz/ru/live/</t>
+          <t>https://ichip.ru/tekhnologii/bezopasnost-pri-rabote-s-torrentami-sovety-eksperta-809942</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>767office@tv7.kz Форма: https://tv7.kz/ru/ (метод: get)</t>
+          <t>Форма: # (метод: post) Форма: /search/ (метод: ) Форма: /tekhnologii/bezopasnost-pri-rabote-s-torrentami-sovety-eksperta-809942 (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>live.domatv.net</t>
+          <t>store.steampowered.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://live.domatv.net/</t>
+          <t>https://store.steampowered.com/app/2074920/The_First_Descendant/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>admin@domatv.net</t>
+          <t>Форма: https://store.steampowered.com/search/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>moscowseasons.com</t>
+          <t>torrent-games.link</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://moscowseasons.com/articles/9-mest-gde-v-moskve-mozhno-besplatno-posmotret-kino/</t>
+          <t>https://torrent-games.link/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Форма: /site/subscribe/ (метод: post)</t>
+          <t>Форма: https://torrent-games.link/search.html (метод: get) Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tnt-online.ru</t>
+          <t>sport24.ru</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://tnt-online.ru/series</t>
+          <t>https://sport24.ru/cybersport/article-700815-okazyvayetsya-stalker-2-nelzya-budet-skachat-dazhe-s-torrentov-vot-pochemu-oboyti-zapret-ne-udastsya</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>info@tnt-tv.ru Форма: https://tnt-online.ru/search (метод: )</t>
+          <t>reklama@sport24.ru. info@sport24.ru</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>meloman.ru</t>
+          <t>www.microsoft.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://meloman.ru/videos/online/</t>
+          <t>https://www.microsoft.com/ru-ru/p/torrent-rt-free/9wzdncrfhw41</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post) Форма: # (метод: get) Форма: /search/ (метод: )</t>
+          <t>Форма: https://www.microsoft.com/en-us/search (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>uspeh.tv</t>
+          <t>dayzland.ru</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://uspeh.tv/</t>
+          <t>https://dayzland.ru/download.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post) help.uspehtv@gmail.comTelegram</t>
+          <t>support@dayzland.ru Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ntvplus.tv</t>
+          <t>forum.kasperskyclub.ru</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://ntvplus.tv/</t>
+          <t>https://forum.kasperskyclub.ru/topic/426769-resheno-skachal-torrent-gruzit-proc-zakryvaet-dispetcher-i-brauzer/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Форма: /faq/feedback-save (метод: )</t>
+          <t>Форма: https://forum.kasperskyclub.ru/login/ (метод: post) Форма: https://forum.kasperskyclub.ru/topic/426769-resheno-skachal-torrent-gruzit-proc-zakryvaet-dispetcher-i-brauzer/?csrfKey=9f2f43229be7016f7e8d7362d9f702ad&amp;do=multimodComment (метод: post) Форма: //forum.kasperskyclub.ru/search/?do=quicksearch (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tv.mail.ru</t>
+          <t>www.playground.ru</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://tv.mail.ru/online/</t>
+          <t>https://www.playground.ru/tom_clancys_ghost_recon_wildlands/forum/skachal_igru_s_torrenta_a_ona_ne_zapuskaetsya-1665796</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Форма: /search/ (метод: )</t>
+          <t>Форма: https://www.playground.ru/support/ (метод: post) Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>filmix.my</t>
+          <t>notorgames.net</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://filmix.my/</t>
+          <t>https://notorgames.net/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>Форма: https://notorgames.net/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>www.ivi.ru</t>
+          <t>cq.ru</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.ivi.ru/</t>
+          <t>https://cq.ru/articles/industry/gde-teper-skachat-igry-filmy-i-drugoi-soft-10-luchshikh-torrent-trekerov</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>partners@ivi.ru</t>
+          <t>Форма: https://cq.ru/password/email (метод: post) Форма: https://cq.ru/login (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kion.ru</t>
+          <t>torrent-games.games</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://kion.ru/</t>
+          <t>https://torrent-games.games/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>250-08-04app@kion.ruKION</t>
+          <t>Форма: / (метод: post) Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kion.ru</t>
+          <t>ximepa.ru</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://kion.ru/video</t>
+          <t>http://ximepa.ru/load/raznye_igry/ehroticheskie/27-10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>250-08-04app@kion.ruKION</t>
+          <t>Форма: /index/sub/ (метод: post) Форма: /search/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kinoflux.cc</t>
+          <t>lastgame.pro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://kinoflux.cc/</t>
+          <t>https://lastgame.pro/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x-film.ai</t>
+          <t>ximepa.games</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://x-film.ai/</t>
+          <t>https://ximepa.games/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>oxax.tv</t>
+          <t>1torrents-igruha.org</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://oxax.tv/</t>
+          <t>https://1torrents-igruha.org/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -980,200 +980,216 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>www.ivi.tv</t>
+          <t>vrtor.ru</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.ivi.tv/</t>
+          <t>https://vrtor.ru/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>partners@ivi.ru</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>online.hse.ru</t>
+          <t>play.google.com</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://online.hse.ru/</t>
+          <t>https://play.google.com/store/apps/details?id=com.utorrent.client&amp;hl=ru</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>onlinedegree@hse.ru openedu@hse.ru elearn@hse.ru oplisko@hse.ru</t>
+          <t>utandroid@bittorrent.comshield utandroid@bittorrent.com bommuraj.paramaraj@bittorrent.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>smotrim.ru</t>
+          <t>blog.skillfactory.ru</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://smotrim.ru/serials</t>
+          <t>https://blog.skillfactory.ru/torrent-chto-eto-i-kak-rabotaet/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Форма: /search (метод: get) info@smotrim.ru</t>
+          <t>Форма: /torrent-chto-eto-i-kak-rabotaet/#wpcf7-f12212-p30356-o1 (метод: post) Форма: https://blog.skillfactory.ru/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>www.vedomosti.ru</t>
+          <t>osu.ppy.sh</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.vedomosti.ru/forum/telekom_2022/article/2022/05/11/921702-sebya-ogranichivat</t>
+          <t>https://osu.ppy.sh/home/download</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>info@vedomosti.ru news@vedomosti.ru</t>
+          <t>Форма: https://osu.ppy.sh/session (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>seasonvar.ru</t>
+          <t>torfiles.ru</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://seasonvar.ru/serial-4317--SHef_psmshev.html</t>
+          <t>https://torfiles.ru/load/nintendo/switch/58</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Форма: /search (метод: )</t>
+          <t>Форма: /load/ (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>kino.mail.ru</t>
+          <t>stoigr.org</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://kino.mail.ru/cinema/online/</t>
+          <t>https://stoigr.org/index.php?action=mobiledisable</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Форма: /landing/cinema/form_response/ (метод: get) Форма: /search/ (метод: get) Форма: /search/ (метод: )</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>www.rbc.ru</t>
+          <t>thelastgame.ru</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.rbc.ru/rbcfreenews/58b562ad9a794729b643f82e</t>
+          <t>https://thelastgame.ru/the-last-spell/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>letters@rbc.ru Форма: /search/ (метод: )</t>
+          <t>Форма: https://thelastgame.ru/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kinogo.li</t>
+          <t>utorrentgames.best</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://kinogo.li/</t>
+          <t>https://utorrentgames.best/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>Форма: https://utorrentgames.best/search.html (метод: get) Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>chetv.ru</t>
+          <t>www.iphones.ru</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://chetv.ru/show/antimagiia</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>https://www.iphones.ru/iNotes/user-posts/kak-v-ssha-nakazyvayut-za-torrenty-kak-naschet-pozhiznennogo-otklyucheniya-interneta-06-04-2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Форма: /search (метод: get) Форма: https://www.iphones.ru/wp-login-popup.php (метод: post)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kinobar.ai</t>
+          <t>ru.wikihow.com</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://kinobar.ai/</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>https://ru.wikihow.com/%D1%83%D1%81%D1%82%D0%B0%D0%BD%D0%BE%D0%B2%D0%B8%D1%82%D1%8C-%D1%81%D0%BA%D0%B0%D1%87%D0%B0%D0%BD%D0%BD%D1%83%D1%8E-%D1%81-%D1%82%D0%BE%D1%80%D1%80%D0%B5%D0%BD%D1%82%D0%B0-%D0%B8%D0%B3%D1%80%D1%83</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Форма: /wikiHowTo (метод: )</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>zoo.mos.ru</t>
+          <t>small-games.info</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://zoo.mos.ru/</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>https://small-games.info/?go=game&amp;c=4&amp;i=28742</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Форма:  (метод: post) Форма: /?go=search (метод: ) Форма: /?go=search (метод: get)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>moscow.megafon.ru</t>
+          <t>thepiratebay.org</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://moscow.megafon.ru/services/joy/start/</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>https://thepiratebay.org/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Форма: /search.php (метод: )</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>www.pochtabank.ru</t>
+          <t>www.tiktok.com</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.pochtabank.ru/service/debetcards/pushkinskaya_karta</t>
+          <t>https://www.tiktok.com/@olegpivodetyam/video/7384743013819403552</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1181,12 +1197,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>kino.tricolor.tv</t>
+          <t>www.youtube.com</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://kino.tricolor.tv/</t>
+          <t>https://www.youtube.com/watch?v=N9YPYqt2I9k</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1194,12 +1210,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>www.mvideo.ru</t>
+          <t>erotorrent.ru</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.mvideo.ru/blog/podborki/gde-smotret-filmy-i-serialy-besplatno-top-14-servisov</t>
+          <t>https://erotorrent.ru/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1207,12 +1223,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>film3.zagonka.online</t>
+          <t>repack-games.ru</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://film3.zagonka.online/</t>
+          <t>https://repack-games.ru/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1220,12 +1236,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>www.sravni.ru</t>
+          <t>dzen.ru</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.sravni.ru/kursy/menedzhment-prodyuser-onlajn-kursov/shkola/eduson-academy/</t>
+          <t>https://dzen.ru/video/watch/63fda77d3876d93b6f35756c</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1233,12 +1249,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>start.ru</t>
+          <t>torrentscity.net</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://start.ru/movies</t>
+          <t>https://torrentscity.net/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1246,12 +1262,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>m.youtube.com</t>
+          <t>kanobu.ru</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://m.youtube.com/playlist?list=PLAB20788A0621F97E</t>
+          <t>https://kanobu.ru/news/entuziastyi-sozdali-piratskij-steam-s-torrent-trekerom-i-stranitsami-igr-486333/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1259,12 +1275,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kinobar.ai</t>
+          <t>byrutgame.org</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://kinobar.ai/novinki-kino/</t>
+          <t>https://byrutgame.org/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1272,12 +1288,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>klinok-rassekayuschiy-demonov.org</t>
+          <t>www.utorrent.com</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://klinok-rassekayuschiy-demonov.org/</t>
+          <t>https://www.utorrent.com/intl/ru/downloads/mac/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1285,12 +1301,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>daily.afisha.ru</t>
+          <t>itorrents-igruha.org</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://daily.afisha.ru/culture/15948-ot-kurehina-do-kurentzisa-luchshie-onlayn-translyacii-nedeli/</t>
+          <t>https://itorrents-igruha.org/new-pc-games/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1298,12 +1314,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lifehacker.ru</t>
+          <t>store.epicgames.com</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://lifehacker.ru/apple-music-live-garri-stajlz/</t>
+          <t>https://store.epicgames.com/ru/p/infinity-nikki-71fc64</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1311,12 +1327,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>www.tvigle.ru</t>
+          <t>brotorrent.net</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.tvigle.ru/</t>
+          <t>https://brotorrent.net/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1324,12 +1340,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>www.rustore.ru</t>
+          <t>otvet.mail.ru</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.rustore.ru/catalog/app/ru.rutube.app</t>
+          <t>https://otvet.mail.ru/question/222429168</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1337,12 +1353,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tvin.su</t>
+          <t>www.reddit.com</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://tvin.su/view-tv-online/sovetskoe-kino</t>
+          <t>https://www.reddit.com/r/rusAskReddit/comments/1augzmb/%D0%BC%D0%BE%D0%B6%D0%BD%D0%BE_%D0%BB%D0%B8_%D1%81%D0%BA%D0%B0%D1%87%D0%B8%D0%B2%D0%B0%D1%82%D1%8C_%D0%B8%D0%B3%D1%80%D1%8B_%D1%81_%D1%82%D0%BE%D1%80%D1%80%D0%B5%D0%BD%D1%82_%D0%B8%D0%B3%D1%80%D1%83%D1%85%D0%B8/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1350,12 +1366,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>turoktv.com</t>
+          <t>forum.sirus.su</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://turoktv.com/</t>
+          <t>https://forum.sirus.su/threads/ne-udaetsja-skachat-torrent.271428/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1363,12 +1379,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>premier.one</t>
+          <t>www.qbittorrent.org</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://premier.one/</t>
+          <t>https://www.qbittorrent.org/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1376,12 +1392,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kinokrad.my</t>
+          <t>www.unrealengine.com</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://kinokrad.my/</t>
+          <t>https://www.unrealengine.com/en-US/unreal-engine-5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1389,12 +1405,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>www.1tv.ru</t>
+          <t>yandex.ru</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.1tv.ru/live</t>
+          <t>https://yandex.ru/q/question/kak_ustanovit_igru_skachannuiu_mediaget_930623f5/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1402,12 +1418,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>rutube.ru</t>
+          <t>mediaget.com</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://rutube.ru/feeds/movies/moviesgenres/</t>
+          <t>https://mediaget.com/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1415,12 +1431,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hd.kinopoisk.ru</t>
+          <t>dtf.ru</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://hd.kinopoisk.ru/</t>
+          <t>https://dtf.ru/2036009-torrent-igruha-govno?comment=28288086</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1428,12 +1444,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>rutube.ru</t>
+          <t>answers.microsoft.com</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://rutube.ru/</t>
+          <t>https://answers.microsoft.com/ru-ru/windows/forum/all/%D0%BA%D0%B0%D0%BA-%D0%BC%D0%BD%D0%B5/ab8125e5-e17c-4b13-a23f-7f8f5b2cce48</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1441,12 +1457,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ctc.ru</t>
+          <t>love-games1.net</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://ctc.ru/online/</t>
+          <t>https://love-games1.net/load/igry_dlja_konsolej/igry_dlja_playstation_4/42</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1454,12 +1470,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>www.youtube.com</t>
+          <t>moreigr.org</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/playlist?list=PLAB20788A0621F97E</t>
+          <t>https://moreigr.org/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1467,12 +1483,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wink.ru</t>
+          <t>vk.com</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://wink.ru/series/landyshi-takaya-nezhnaya-lyubov-year-2025</t>
+          <t>https://vk.com/@pnl_cpy-bezopasnye-torrent-trekery-i-saity</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1480,12 +1496,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>www.kinopoisk.ru</t>
+          <t>games-torrents.org</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.kinopoisk.ru/</t>
+          <t>https://games-torrents.org/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1493,12 +1509,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>amedia.lol</t>
+          <t>positiverecords.ru</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://amedia.lol/</t>
+          <t>https://positiverecords.ru/pages/photoshop/games_linux.html</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1506,12 +1522,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>www.tretyakovgallery.ru</t>
+          <t>dayzavr.ru</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.tretyakovgallery.ru/tickets/</t>
+          <t>https://dayzavr.ru/download.html</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1519,12 +1535,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pobeda.tv</t>
+          <t>www.ru.playblackdesert.com</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pobeda.tv/live</t>
+          <t>https://www.ru.playblackdesert.com/Community/Detail?topicNo=37902&amp;topicType=3&amp;returnUrl=/Community?topicType=3&amp;Page=1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1532,12 +1548,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>russia-tv.online</t>
+          <t>m.vk.com</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://russia-tv.online/</t>
+          <t>https://m.vk.com/wall-118345859_2837439?lang=en</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1545,12 +1561,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>domashniy.ru</t>
+          <t>habr.com</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://domashniy.ru/serials/velikolepnyy_vek_imperiya_kesem</t>
+          <t>https://habr.com/ru/companies/hidemy_name/articles/403539/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1558,106 +1574,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ip.viks.tv</t>
+          <t>thelastgame.org</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://ip.viks.tv/</t>
+          <t>https://thelastgame.org/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>www.rustore.ru</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>https://www.rustore.ru/catalog/app/ru.sberbankmobile</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>okko.tv</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://okko.tv/serial/autsors</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ctclove.ru</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://ctclove.ru/projects/serial/molodezhka</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>vk.com</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://vk.com/kinopix</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ip.tivix.co</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>http://ip.tivix.co/mobilnoe_tv/</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>www.debilizator.tv</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://www.debilizator.tv/pervyj-kanal/now/</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>www.lordfilm.gg</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://www.lordfilm.gg/</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>igrovuha.org</t>
+          <t>kinogo.org</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://igrovuha.org/</t>
+          <t>https://kinogo.org/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,46 +470,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>byxatab.com</t>
+          <t>protocol.ua</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://byxatab.com/</t>
+          <t>https://protocol.ua/ua/smotret_kino_onlayn_besplatno_bez_sms_chem_ukraine_grozit_piratskiy_status/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>Форма: /ua/coments/addcoment/ (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stalkermod.ru</t>
+          <t>w.kinogo.ec</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://stalkermod.ru/modyi-call-of-chernobyl/stalker-anomaly-1-5-3.html</t>
+          <t>https://w.kinogo.ec/114939-bolshoj-potencial.html</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Форма: https://stalkermod.ru/log-yourself-in.html (метод: post) Форма: /forum.html (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>freetp.org</t>
+          <t>rserial.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://freetp.org/po-seti/6272-liars-bar-igra-po-seti-i-internetu-onlayn.html</t>
+          <t>https://rserial.com/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,29 +521,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cyber.sports.ru</t>
+          <t>kinozed.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://cyber.sports.ru/games/blogs/3172695.html</t>
+          <t>https://kinozed.com/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>support@sports.ru Форма:  (метод: post) Форма: /ajax/user/unsubscribe.html (метод: post) Форма: /ajax/user/subscribe.html (метод: post)</t>
+          <t>Форма: / (метод: post) Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>catorrent.org</t>
+          <t>kinogo.ec</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://catorrent.org/</t>
+          <t>https://kinogo.ec/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,12 +555,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gmt-max.info</t>
+          <t>kinoprofi.day</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://gmt-max.info/</t>
+          <t>https://kinoprofi.day/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,131 +572,131 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gamestracker.org</t>
+          <t>www.ntv.ru</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://gamestracker.org/</t>
+          <t>https://www.ntv.ru/air/ntvseries/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Форма: /search/ (метод: get)</t>
+          <t>www@ntv.ru</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>stalker-world.ru</t>
+          <t>kinogo.no</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://stalker-world.ru/load/igry/7</t>
+          <t>https://kinogo.no/serialy/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Форма: /index/sub/ (метод: post) Форма: /search/ (метод: get)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>torrent9.games</t>
+          <t>telik.live</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://torrent9.games/</t>
+          <t>http://telik.live/kino-tv.html</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>Форма: /component/search/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kuplinov-play.games</t>
+          <t>rg.ru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://kuplinov-play.games/</t>
+          <t>https://rg.ru/2020/03/15/chto-mozhno-besplatno-posmotret-v-seti-vo-vremia-karantina.html</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>257-56-50mail@rg.ru</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>eneva.ru</t>
+          <t>kinokong.day</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://eneva.ru/blog/chto-takoe-torrenty-i-kak-oni-rabotajut/</t>
+          <t>https://kinokong.day/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pressa@eneva.ru control@eneva.ru tp@eneva.ru Форма: /blog/chto-takoe-torrenty-i-kak-oni-rabotajut/#wpcf7-f864-o2 (метод: post) ao@eneva.ru Форма: /blog/chto-takoe-torrenty-i-kak-oni-rabotajut/#wpcf7-f480-o4 (метод: post) Форма: /blog/chto-takoe-torrenty-i-kak-oni-rabotajut/#wpcf7-f849-o3 (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>github.com</t>
+          <t>kinogo.fm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://github.com/hydralauncher/hydra</t>
+          <t>https://kinogo.fm/2512-anora.html</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Форма: /search/feedback (метод: post) Форма: /search/custom_scopes (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pro32.com</t>
+          <t>kinogo.fm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pro32.com/ru/article/kak-skachat-torrent-bez-virusov/</t>
+          <t>https://kinogo.fm/2529-landyshi-takaja-nezhnaja-ljubov.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Форма: ?error-subscription=true (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>byxatab.org</t>
+          <t>seasonvar.run</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://byxatab.org/</t>
+          <t>https://seasonvar.run/1638-nevskij-6-1-6-sezon-1-30-serija-smotret-onlain-vse-serii-podryad-1080-full-hd.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,12 +708,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xbox-360.org</t>
+          <t>lordserials.fan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://xbox-360.org/</t>
+          <t>https://lordserials.fan/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,216 +725,216 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ichip.ru</t>
+          <t>www.1tv.ru</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://ichip.ru/tekhnologii/bezopasnost-pri-rabote-s-torrentami-sovety-eksperta-809942</t>
+          <t>https://www.1tv.ru/shows/dobroe-utro/eto-kino/multfilmy-besplatno-dobroe-utro-fragment-vypuska-ot-17-03-2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Форма: # (метод: post) Форма: /search/ (метод: ) Форма: /tekhnologii/bezopasnost-pri-rabote-s-torrentami-sovety-eksperta-809942 (метод: post)</t>
+          <t>Форма: /search (метод: )</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>store.steampowered.com</t>
+          <t>cis-india.org</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://store.steampowered.com/app/2074920/The_First_Descendant/</t>
+          <t>https://cis-india.org/a2k/blogs/rti-request-to-indian-patents-office-for-form-27-statement-of-working-of-patents-2015</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Форма: https://store.steampowered.com/search/ (метод: get)</t>
+          <t>Форма: https://cis-india.org/@@search (метод: )</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>torrent-games.link</t>
+          <t>news.itmo.ru</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://torrent-games.link/</t>
+          <t>https://news.itmo.ru/ru/news/9270/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Форма: https://torrent-games.link/search.html (метод: get) Форма:  (метод: post)</t>
+          <t>news@itmo.ru pressa@itmo.ru Форма: /ru/search/ (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sport24.ru</t>
+          <t>www.culture.ru</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://sport24.ru/cybersport/article-700815-okazyvayetsya-stalker-2-nelzya-budet-skachat-dazhe-s-torrentov-vot-pochemu-oboyti-zapret-ne-udastsya</t>
+          <t>https://www.culture.ru/live/broadcast/115222/vecher-vstrecha-ya-ne-sluchainyi-gost-zemli-rodnoi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>reklama@sport24.ru. info@sport24.ru</t>
+          <t>cultrf@mkrf.ru</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>www.microsoft.com</t>
+          <t>ru.stackoverflow.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/ru-ru/p/torrent-rt-free/9wzdncrfhw41</t>
+          <t>https://ru.stackoverflow.com/questions/1591229/%D0%9F%D0%BE%D1%87%D0%B5%D0%BC%D1%83-%D0%B2%D1%8B%D1%85%D0%BE%D0%B4%D1%8F%D1%82-%D1%81%D1%80%D0%B0%D0%B7%D1%83-10-%D1%8D%D0%BB%D0%B5%D0%BC%D0%B5%D0%BD%D1%82%D0%BE%D0%B2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Форма: https://www.microsoft.com/en-us/search (метод: get)</t>
+          <t>Форма: /search (метод: ) Форма: /questions/1591229/answer/submit (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dayzland.ru</t>
+          <t>x-film.ai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://dayzland.ru/download.html</t>
+          <t>https://x-film.ai/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>support@dayzland.ru Форма:  (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>forum.kasperskyclub.ru</t>
+          <t>kinokong.sk</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://forum.kasperskyclub.ru/topic/426769-resheno-skachal-torrent-gruzit-proc-zakryvaet-dispetcher-i-brauzer/</t>
+          <t>https://kinokong.sk/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Форма: https://forum.kasperskyclub.ru/login/ (метод: post) Форма: https://forum.kasperskyclub.ru/topic/426769-resheno-skachal-torrent-gruzit-proc-zakryvaet-dispetcher-i-brauzer/?csrfKey=9f2f43229be7016f7e8d7362d9f702ad&amp;do=multimodComment (метод: post) Форма: //forum.kasperskyclub.ru/search/?do=quicksearch (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>www.playground.ru</t>
+          <t>kinozapas.io</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.playground.ru/tom_clancys_ghost_recon_wildlands/forum/skachal_igru_s_torrenta_a_ona_ne_zapuskaetsya-1665796</t>
+          <t>https://kinozapas.io/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Форма: https://www.playground.ru/support/ (метод: post) Форма:  (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>notorgames.net</t>
+          <t>coldfilm.ink</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://notorgames.net/</t>
+          <t>https://coldfilm.ink/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Форма: https://notorgames.net/ (метод: get)</t>
+          <t>Форма: /search/ (метод: get) Форма: /index/sub/ (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cq.ru</t>
+          <t>kinotut.my</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://cq.ru/articles/industry/gde-teper-skachat-igry-filmy-i-drugoi-soft-10-luchshikh-torrent-trekerov</t>
+          <t>https://kinotut.my/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Форма: https://cq.ru/password/email (метод: post) Форма: https://cq.ru/login (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>torrent-games.games</t>
+          <t>lordfilm.ng</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://torrent-games.games/</t>
+          <t>https://lordfilm.ng/yshasy/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Форма: / (метод: post) Форма:  (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ximepa.ru</t>
+          <t>kinoogo.zone</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://ximepa.ru/load/raznye_igry/ehroticheskie/27-10</t>
+          <t>https://kinoogo.zone/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Форма: /index/sub/ (метод: post) Форма: /search/ (метод: get)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lastgame.pro</t>
+          <t>kinotc.com</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://lastgame.pro/</t>
+          <t>https://kinotc.com/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ximepa.games</t>
+          <t>seasonvar.one</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://ximepa.games/</t>
+          <t>https://seasonvar.one/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1torrents-igruha.org</t>
+          <t>kinogo.mn</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://1torrents-igruha.org/</t>
+          <t>https://kinogo.mn/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -980,268 +980,284 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vrtor.ru</t>
+          <t>kion.ru</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://vrtor.ru/</t>
+          <t>https://kion.ru/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>250-08-04app@kion.ruKION</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>play.google.com</t>
+          <t>kinogo.net</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://play.google.com/store/apps/details?id=com.utorrent.client&amp;hl=ru</t>
+          <t>https://kinogo.net/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>utandroid@bittorrent.comshield utandroid@bittorrent.com bommuraj.paramaraj@bittorrent.com</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>blog.skillfactory.ru</t>
+          <t>smotrim.ru</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://blog.skillfactory.ru/torrent-chto-eto-i-kak-rabotaet/</t>
+          <t>https://smotrim.ru/serials</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Форма: /torrent-chto-eto-i-kak-rabotaet/#wpcf7-f12212-p30356-o1 (метод: post) Форма: https://blog.skillfactory.ru/ (метод: get)</t>
+          <t>info@smotrim.ru Форма: /search (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>osu.ppy.sh</t>
+          <t>apps.apple.com</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://osu.ppy.sh/home/download</t>
+          <t>https://apps.apple.com/ru/app/%D0%B1%D0%B8%D0%BB%D0%B0%D0%B9%D0%BD-%D1%82%D0%B2-%D1%81%D0%BC%D0%BE%D1%82%D1%80%D0%B5%D1%82%D1%8C-%D0%BE%D0%BD%D0%BB%D0%B0%D0%B9%D0%BD/id979837827</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Форма: https://osu.ppy.sh/session (метод: post)</t>
+          <t>Форма: https://www.apple.com/ru/search (метод: get)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>torfiles.ru</t>
+          <t>kinogoo.fm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://torfiles.ru/load/nintendo/switch/58</t>
+          <t>https://kinogoo.fm/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Форма: /load/ (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>stoigr.org</t>
+          <t>hdrezka.ag</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://stoigr.org/index.php?action=mobiledisable</t>
+          <t>https://hdrezka.ag/series/thriller/1741-mentalist-2008.html</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post)</t>
+          <t>support@hdrezka.org</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>thelastgame.ru</t>
+          <t>play.google.com</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://thelastgame.ru/the-last-spell/</t>
+          <t>https://play.google.com/store/apps/details?id=ru.rt.video.app.mobile&amp;hl=ru</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Форма: https://thelastgame.ru/ (метод: get)</t>
+          <t>info@restream.ru support@wink.rushield support@wink.ru. support@wink.ru</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>utorrentgames.best</t>
+          <t>kinogo.online</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://utorrentgames.best/</t>
+          <t>https://kinogo.online/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Форма: https://utorrentgames.best/search.html (метод: get) Форма:  (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>www.iphones.ru</t>
+          <t>kinoflux.cc</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.iphones.ru/iNotes/user-posts/kak-v-ssha-nakazyvayut-za-torrenty-kak-naschet-pozhiznennogo-otklyucheniya-interneta-06-04-2024</t>
+          <t>https://kinoflux.cc/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Форма: /search (метод: get) Форма: https://www.iphones.ru/wp-login-popup.php (метод: post)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ru.wikihow.com</t>
+          <t>wink.ru</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://ru.wikihow.com/%D1%83%D1%81%D1%82%D0%B0%D0%BD%D0%BE%D0%B2%D0%B8%D1%82%D1%8C-%D1%81%D0%BA%D0%B0%D1%87%D0%B0%D0%BD%D0%BD%D1%83%D1%8E-%D1%81-%D1%82%D0%BE%D1%80%D1%80%D0%B5%D0%BD%D1%82%D0%B0-%D0%B8%D0%B3%D1%80%D1%83</t>
+          <t>https://wink.ru/series/kombinatsiya-year-2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Форма: /wikiHowTo (метод: )</t>
+          <t>support@wink.ru</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>small-games.info</t>
+          <t>kinogo.li</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://small-games.info/?go=game&amp;c=4&amp;i=28742</t>
+          <t>https://kinogo.li/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Форма:  (метод: post) Форма: /?go=search (метод: ) Форма: /?go=search (метод: get)</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>thepiratebay.org</t>
+          <t>kinogo-films.biz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://thepiratebay.org/</t>
+          <t>https://kinogo-films.biz/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Форма: /search.php (метод: )</t>
+          <t>Форма:  (метод: post)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>www.tiktok.com</t>
+          <t>seasonvar.ru</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@olegpivodetyam/video/7384743013819403552</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>http://seasonvar.ru/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Форма: /search (метод: )</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>www.youtube.com</t>
+          <t>kino.mail.ru</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=N9YPYqt2I9k</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>https://kino.mail.ru/cinema/online/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Форма: /search/ (метод: get) Форма: /landing/cinema/form_response/ (метод: get) Форма: /search/ (метод: )</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>erotorrent.ru</t>
+          <t>tnt-online.ru</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://erotorrent.ru/</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>https://tnt-online.ru/series</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Форма: https://tnt-online.ru/search (метод: ) info@tnt-tv.ru</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>repack-games.ru</t>
+          <t>kinobar.net</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://repack-games.ru/</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>https://kinobar.net/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Форма:  (метод: post)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>dzen.ru</t>
+          <t>yandex.ru</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://dzen.ru/video/watch/63fda77d3876d93b6f35756c</t>
+          <t>https://yandex.ru/maps/org/trikolor/224661364604/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1249,12 +1265,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>torrentscity.net</t>
+          <t>rutube.ru</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://torrentscity.net/</t>
+          <t>https://rutube.ru/feeds/movies/moviesgenres/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1262,12 +1278,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kanobu.ru</t>
+          <t>kinokrad.my</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://kanobu.ru/news/entuziastyi-sozdali-piratskij-steam-s-torrent-trekerom-i-stranitsami-igr-486333/</t>
+          <t>https://kinokrad.my/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1275,12 +1291,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>byrutgame.org</t>
+          <t>m.vk.com</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://byrutgame.org/</t>
+          <t>https://m.vk.com/video-147164702_456240069?comments=1&amp;offset=20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1288,12 +1304,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>www.utorrent.com</t>
+          <t>mn.lordfilm.md</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.utorrent.com/intl/ru/downloads/mac/</t>
+          <t>https://mn.lordfilm.md/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1301,12 +1317,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>itorrents-igruha.org</t>
+          <t>www.ivi.tv</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://itorrents-igruha.org/new-pc-games/</t>
+          <t>https://www.ivi.tv/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1314,12 +1330,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>store.epicgames.com</t>
+          <t>m.youtube.com</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://store.epicgames.com/ru/p/infinity-nikki-71fc64</t>
+          <t>https://m.youtube.com/watch?v=oEWFBxl5w4M&amp;t=3m39s</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1327,12 +1343,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>brotorrent.net</t>
+          <t>lordfilm.ai</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://brotorrent.net/</t>
+          <t>https://lordfilm.ai/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1340,12 +1356,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>otvet.mail.ru</t>
+          <t>www.ivi.ru</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://otvet.mail.ru/question/222429168</t>
+          <t>https://www.ivi.ru/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1353,12 +1369,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>www.reddit.com</t>
+          <t>filmhd1080.co</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/rusAskReddit/comments/1augzmb/%D0%BC%D0%BE%D0%B6%D0%BD%D0%BE_%D0%BB%D0%B8_%D1%81%D0%BA%D0%B0%D1%87%D0%B8%D0%B2%D0%B0%D1%82%D1%8C_%D0%B8%D0%B3%D1%80%D1%8B_%D1%81_%D1%82%D0%BE%D1%80%D1%80%D0%B5%D0%BD%D1%82_%D0%B8%D0%B3%D1%80%D1%83%D1%85%D0%B8/</t>
+          <t>https://filmhd1080.co/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1366,12 +1382,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>forum.sirus.su</t>
+          <t>ctc.ru</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://forum.sirus.su/threads/ne-udaetsja-skachat-torrent.271428/</t>
+          <t>https://ctc.ru/collections/serials/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1379,12 +1395,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>www.qbittorrent.org</t>
+          <t>www.youtube.com</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.qbittorrent.org/</t>
+          <t>https://www.youtube.com/watch?v=9-jMt3Nrl5o</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1392,12 +1408,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>www.unrealengine.com</t>
+          <t>gidonline.net</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.unrealengine.com/en-US/unreal-engine-5</t>
+          <t>https://gidonline.net/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1405,12 +1421,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yandex.ru</t>
+          <t>film3.zagonka.online</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://yandex.ru/q/question/kak_ustanovit_igru_skachannuiu_mediaget_930623f5/</t>
+          <t>http://film3.zagonka.online/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1418,12 +1434,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mediaget.com</t>
+          <t>ctclove.ru</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://mediaget.com/</t>
+          <t>https://ctclove.ru/projects/serial/molodezhka</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1431,12 +1447,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>dtf.ru</t>
+          <t>indiakino.org</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://dtf.ru/2036009-torrent-igruha-govno?comment=28288086</t>
+          <t>https://indiakino.org/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1444,12 +1460,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>answers.microsoft.com</t>
+          <t>www.rustore.ru</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://answers.microsoft.com/ru-ru/windows/forum/all/%D0%BA%D0%B0%D0%BA-%D0%BC%D0%BD%D0%B5/ab8125e5-e17c-4b13-a23f-7f8f5b2cce48</t>
+          <t>https://www.rustore.ru/catalog/app/ru.rutube.app</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1457,12 +1473,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>love-games1.net</t>
+          <t>www.sberbank.com</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://love-games1.net/load/igry_dlja_konsolej/igry_dlja_playstation_4/42</t>
+          <t>https://www.sberbank.com/ru/person/blog/5-faktov-kotorye-vy-mogli-ne-znat-o-svoei-podpiske-sberprime</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1470,12 +1486,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>moreigr.org</t>
+          <t>24h.tv</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://moreigr.org/</t>
+          <t>https://24h.tv/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1488,7 +1504,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://vk.com/@pnl_cpy-bezopasnye-torrent-trekery-i-saity</t>
+          <t>https://vk.com/filmgogi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1496,12 +1512,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>games-torrents.org</t>
+          <t>rezka.ag</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://games-torrents.org/</t>
+          <t>https://rezka.ag/films/best/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1509,12 +1525,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>positiverecords.ru</t>
+          <t>www.kinopoisk.ru</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://positiverecords.ru/pages/photoshop/games_linux.html</t>
+          <t>https://www.kinopoisk.ru/lists/movies/women_directors/?b=russian&amp;ss_subscription=ANY</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1522,12 +1538,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dayzavr.ru</t>
+          <t>www.mvideo.ru</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://dayzavr.ru/download.html</t>
+          <t>https://www.mvideo.ru/blog/podborki/gde-smotret-filmy-i-serialy-besplatno-top-14-servisov</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1535,12 +1551,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>www.ru.playblackdesert.com</t>
+          <t>cloud.mail.ru</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.ru.playblackdesert.com/Community/Detail?topicNo=37902&amp;topicType=3&amp;returnUrl=/Community?topicType=3&amp;Page=1</t>
+          <t>https://cloud.mail.ru/album/Pe1a/FCuF87txc</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1548,12 +1564,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>m.vk.com</t>
+          <t>premier.one</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://m.vk.com/wall-118345859_2837439?lang=en</t>
+          <t>https://premier.one/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1561,12 +1577,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>habr.com</t>
+          <t>www.tvigle.ru</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://habr.com/ru/companies/hidemy_name/articles/403539/</t>
+          <t>https://www.tvigle.ru/catalog/filmy/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1574,15 +1590,41 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>thelastgame.org</t>
+          <t>domashniy.ru</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://thelastgame.org/</t>
+          <t>https://domashniy.ru/serials/velikolepnyy_vek</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>hd.kinopoisk.ru</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://hd.kinopoisk.ru/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>www.lordfilm.gg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.lordfilm.gg/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
